--- a/LNG2.X_LY TEST REPORT.xlsx
+++ b/LNG2.X_LY TEST REPORT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16830" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16830" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="设置菜单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="354">
   <si>
     <t>测试项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>1.是否检验钢瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.最大间隔天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1685,6 +1681,18 @@
         }
         else
         {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply51()中，原来直接用SendBackCommunicationData(COMM_RESPONSEOK, SendBack485Count);但因为Reply51没有消息体，故SendBack485Count直接调用，其值就为随机数，故程序是错误的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改void SendBackCommunicationData(uint8_t cmd，uint8_t len)为SendBackCommunicationData(uint8_t cmd)，修改其内部函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.最大间隔天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2615,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2629,9 +2637,9 @@
     <col min="6" max="6" width="15.25" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="17.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="15" customWidth="1"/>
     <col min="12" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -2649,13 +2657,13 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="34.5" customHeight="1">
@@ -2663,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="86" t="s">
         <v>4</v>
@@ -2674,12 +2682,12 @@
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="55">
+        <v>43333</v>
+      </c>
+      <c r="K5" s="54" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="55">
-        <v>43333</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -2692,12 +2700,12 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="55">
+        <v>43333</v>
+      </c>
+      <c r="K6" s="54" t="s">
         <v>34</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="55">
-        <v>43333</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1">
@@ -2712,14 +2720,14 @@
       <c r="H7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="79">
+      <c r="J7" s="79">
         <v>43333</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="22.5" customHeight="1">
@@ -2734,9 +2742,9 @@
       <c r="H8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="82"/>
     </row>
     <row r="9" spans="2:12" ht="40.5">
       <c r="B9" s="87"/>
@@ -2752,13 +2760,13 @@
       <c r="H9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="30"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" ht="27">
@@ -2771,13 +2779,13 @@
       <c r="H10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="30"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" ht="27">
@@ -2790,13 +2798,13 @@
       <c r="H11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="30"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12">
@@ -2809,11 +2817,11 @@
       <c r="H12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="30"/>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12">
@@ -2826,11 +2834,11 @@
       <c r="H13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="87"/>
@@ -2844,11 +2852,11 @@
       <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="87"/>
@@ -2860,11 +2868,11 @@
       <c r="H15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="87"/>
@@ -2876,11 +2884,11 @@
       <c r="H16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="87"/>
@@ -2892,11 +2900,11 @@
       <c r="H17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="87"/>
@@ -2908,11 +2916,11 @@
       <c r="H18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="23"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="87"/>
@@ -2924,11 +2932,11 @@
       <c r="H19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="23"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="87"/>
@@ -2937,16 +2945,16 @@
       <c r="E20" s="80"/>
       <c r="F20" s="86"/>
       <c r="G20" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" s="62" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="87"/>
@@ -2956,13 +2964,13 @@
       <c r="F21" s="86"/>
       <c r="G21" s="84"/>
       <c r="H21" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="87"/>
@@ -2974,9 +2982,9 @@
       <c r="H22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="30"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="2:11" ht="40.5">
       <c r="B23" s="87"/>
@@ -2992,13 +3000,13 @@
       <c r="H23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:11" ht="27">
       <c r="B24" s="87"/>
@@ -3010,13 +3018,13 @@
       <c r="H24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="87"/>
@@ -3028,11 +3036,11 @@
       <c r="H25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="62" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="87"/>
@@ -3044,11 +3052,11 @@
       <c r="H26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="87"/>
@@ -3060,11 +3068,11 @@
       <c r="H27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="23"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="87"/>
@@ -3078,13 +3086,13 @@
       <c r="H28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="87"/>
@@ -3096,13 +3104,13 @@
       <c r="H29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="87"/>
@@ -3114,11 +3122,11 @@
       <c r="H30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="23"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="87"/>
@@ -3130,11 +3138,11 @@
       <c r="H31" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="87"/>
@@ -3146,11 +3154,11 @@
       <c r="H32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="23"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="87"/>
@@ -3162,11 +3170,11 @@
       <c r="H33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="23"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="87"/>
@@ -3180,11 +3188,11 @@
       <c r="H34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="87"/>
@@ -3196,11 +3204,11 @@
       <c r="H35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="62" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="87"/>
@@ -3212,11 +3220,11 @@
       <c r="H36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="23"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="87"/>
@@ -3228,11 +3236,11 @@
       <c r="H37" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="I37" s="23"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="2:11" ht="13.5" customHeight="1">
       <c r="B38" s="87"/>
@@ -3243,18 +3251,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="87"/>
@@ -3264,15 +3272,15 @@
       <c r="F39" s="86"/>
       <c r="G39" s="80"/>
       <c r="H39" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="87"/>
@@ -3282,13 +3290,13 @@
       <c r="F40" s="86"/>
       <c r="G40" s="80"/>
       <c r="H40" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="87"/>
@@ -3298,13 +3306,13 @@
       <c r="F41" s="86"/>
       <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="87"/>
@@ -3316,29 +3324,29 @@
       <c r="H42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="54" t="s">
+      <c r="I42" s="23"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="30"/>
-    </row>
-    <row r="43" spans="2:11">
+    </row>
+    <row r="43" spans="2:11" ht="13.5" customHeight="1">
       <c r="B43" s="87"/>
       <c r="C43" s="80"/>
       <c r="D43" s="86"/>
       <c r="E43" s="80"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="80" t="s">
-        <v>62</v>
+      <c r="G43" s="83" t="s">
+        <v>61</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="23"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="2:11" ht="27">
       <c r="B44" s="87"/>
@@ -3346,17 +3354,17 @@
       <c r="D44" s="86"/>
       <c r="E44" s="80"/>
       <c r="F44" s="86"/>
-      <c r="G44" s="80"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="87"/>
@@ -3364,15 +3372,15 @@
       <c r="D45" s="86"/>
       <c r="E45" s="80"/>
       <c r="F45" s="86"/>
-      <c r="G45" s="59"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="87"/>
@@ -3380,17 +3388,17 @@
       <c r="D46" s="86"/>
       <c r="E46" s="80"/>
       <c r="F46" s="86"/>
-      <c r="G46" s="67"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I46" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="87"/>
@@ -3402,11 +3410,11 @@
       <c r="H47" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="66" t="s">
+      <c r="I47" s="23"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="23"/>
-      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="87"/>
@@ -3418,11 +3426,11 @@
       <c r="H48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="I48" s="23"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="23"/>
-      <c r="K48" s="30"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="87"/>
@@ -3431,16 +3439,16 @@
       <c r="E49" s="80"/>
       <c r="F49" s="86"/>
       <c r="G49" s="80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="87"/>
@@ -3452,11 +3460,11 @@
       <c r="H50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I50" s="54" t="s">
+      <c r="I50" s="23"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="23"/>
-      <c r="K50" s="30"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="87"/>
@@ -3468,11 +3476,11 @@
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="54" t="s">
+      <c r="I51" s="23"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="30"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="87"/>
@@ -3486,13 +3494,13 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="23"/>
-      <c r="K52" s="30"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="87"/>
@@ -3502,13 +3510,13 @@
       <c r="F53" s="86"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="23"/>
-      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="87"/>
@@ -3518,13 +3526,13 @@
       <c r="F54" s="86"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="23"/>
-      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="87"/>
@@ -3534,13 +3542,13 @@
       <c r="F55" s="86"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I55" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J55" s="23"/>
-      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="87"/>
@@ -3551,16 +3559,16 @@
         <v>17</v>
       </c>
       <c r="G56" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="23"/>
-      <c r="K56" s="30"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="87"/>
@@ -3570,13 +3578,13 @@
       <c r="F57" s="86"/>
       <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="23"/>
-      <c r="K57" s="30"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="87"/>
@@ -3586,13 +3594,13 @@
       <c r="F58" s="86"/>
       <c r="G58" s="80"/>
       <c r="H58" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I58" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="30"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="87"/>
@@ -3602,13 +3610,13 @@
       <c r="F59" s="86"/>
       <c r="G59" s="80"/>
       <c r="H59" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I59" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="23"/>
-      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="87"/>
@@ -3620,11 +3628,11 @@
       <c r="H60" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="23"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="30"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="87"/>
@@ -3633,16 +3641,16 @@
       <c r="E61" s="80"/>
       <c r="F61" s="86"/>
       <c r="G61" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J61" s="23"/>
-      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="87"/>
@@ -3652,13 +3660,13 @@
       <c r="F62" s="86"/>
       <c r="G62" s="80"/>
       <c r="H62" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="30"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="87"/>
@@ -3668,13 +3676,13 @@
       <c r="F63" s="86"/>
       <c r="G63" s="80"/>
       <c r="H63" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="23"/>
-      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="87"/>
@@ -3684,13 +3692,13 @@
       <c r="F64" s="86"/>
       <c r="G64" s="80"/>
       <c r="H64" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J64" s="23"/>
-      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="87"/>
@@ -3702,9 +3710,9 @@
       <c r="H65" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I65" s="54"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="30"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="54"/>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="87"/>
@@ -3716,11 +3724,11 @@
       <c r="H66" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="54" t="s">
+      <c r="I66" s="23"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="23"/>
-      <c r="K66" s="30"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="87"/>
@@ -3729,16 +3737,16 @@
       <c r="E67" s="80"/>
       <c r="F67" s="86"/>
       <c r="G67" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="23"/>
-      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="87"/>
@@ -3748,13 +3756,13 @@
       <c r="F68" s="86"/>
       <c r="G68" s="80"/>
       <c r="H68" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J68" s="23"/>
-      <c r="K68" s="30"/>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="87"/>
@@ -3764,13 +3772,13 @@
       <c r="F69" s="86"/>
       <c r="G69" s="80"/>
       <c r="H69" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I69" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="87"/>
@@ -3780,13 +3788,13 @@
       <c r="F70" s="86"/>
       <c r="G70" s="80"/>
       <c r="H70" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="23"/>
-      <c r="K70" s="30"/>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="87"/>
@@ -3798,11 +3806,11 @@
       <c r="H71" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I71" s="54" t="s">
+      <c r="I71" s="23"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J71" s="23"/>
-      <c r="K71" s="30"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="87"/>
@@ -3814,11 +3822,11 @@
       <c r="H72" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I72" s="54" t="s">
+      <c r="I72" s="23"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="23"/>
-      <c r="K72" s="30"/>
     </row>
     <row r="73" spans="2:11" ht="27">
       <c r="B73" s="87"/>
@@ -3827,16 +3835,16 @@
       <c r="E73" s="80"/>
       <c r="F73" s="86"/>
       <c r="G73" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I73" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="23"/>
-      <c r="K73" s="30"/>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="87"/>
@@ -3848,11 +3856,11 @@
       <c r="H74" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I74" s="54" t="s">
+      <c r="I74" s="23"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J74" s="23"/>
-      <c r="K74" s="30"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="87"/>
@@ -3864,13 +3872,13 @@
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="J75" s="23"/>
-      <c r="K75" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="54" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="76" spans="2:11" ht="27">
       <c r="B76" s="87"/>
@@ -3880,15 +3888,15 @@
       <c r="F76" s="86"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J76" s="30"/>
+      <c r="K76" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J76" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="K76" s="30"/>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="87"/>
@@ -3899,16 +3907,16 @@
         <v>19</v>
       </c>
       <c r="G77" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I77" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="23"/>
-      <c r="K77" s="30"/>
     </row>
     <row r="78" spans="2:11" ht="40.5">
       <c r="B78" s="87"/>
@@ -3918,15 +3926,15 @@
       <c r="F78" s="86"/>
       <c r="G78" s="80"/>
       <c r="H78" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I78" s="57" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="I78" s="53" t="s">
+        <v>137</v>
       </c>
       <c r="J78" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K78" s="57" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3938,13 +3946,13 @@
       <c r="F79" s="86"/>
       <c r="G79" s="80"/>
       <c r="H79" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I79" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="23"/>
-      <c r="K79" s="30"/>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="87"/>
@@ -3954,15 +3962,15 @@
       <c r="F80" s="86"/>
       <c r="G80" s="80"/>
       <c r="H80" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I80" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="I80" s="62" t="s">
+      <c r="J80" s="30"/>
+      <c r="K80" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J80" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="K80" s="30"/>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="87"/>
@@ -3974,11 +3982,11 @@
       <c r="H81" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I81" s="54" t="s">
+      <c r="I81" s="23"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J81" s="23"/>
-      <c r="K81" s="30"/>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="87"/>
@@ -3987,16 +3995,16 @@
       <c r="E82" s="80"/>
       <c r="F82" s="86"/>
       <c r="G82" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I82" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J82" s="23"/>
-      <c r="K82" s="30"/>
     </row>
     <row r="83" spans="2:11" ht="81">
       <c r="B83" s="87"/>
@@ -4006,16 +4014,16 @@
       <c r="F83" s="86"/>
       <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I83" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J83" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="K83" s="63" t="s">
         <v>35</v>
-      </c>
-      <c r="J83" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="K83" s="64" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="84" spans="2:11">
@@ -4026,13 +4034,13 @@
       <c r="F84" s="86"/>
       <c r="G84" s="80"/>
       <c r="H84" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="I84" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J84" s="23"/>
-      <c r="K84" s="30"/>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="87"/>
@@ -4044,11 +4052,11 @@
       <c r="H85" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="54" t="s">
+      <c r="I85" s="23"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J85" s="23"/>
-      <c r="K85" s="30"/>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="87"/>
@@ -4060,31 +4068,31 @@
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="54" t="s">
+      <c r="I86" s="23"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J86" s="23"/>
-      <c r="K86" s="30"/>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="87"/>
       <c r="C87" s="80"/>
       <c r="D87" s="86"/>
       <c r="E87" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I87" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I87" s="20"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J87" s="20"/>
-      <c r="K87" s="30"/>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="87"/>
@@ -4094,13 +4102,13 @@
       <c r="F88" s="86"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I88" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J88" s="20"/>
-      <c r="K88" s="30"/>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="87"/>
@@ -4110,13 +4118,13 @@
       <c r="F89" s="86"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I89" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I89" s="20"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J89" s="20"/>
-      <c r="K89" s="30"/>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="87"/>
@@ -4124,17 +4132,17 @@
       <c r="D90" s="86"/>
       <c r="E90" s="80"/>
       <c r="F90" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I90" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I90" s="20"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="20"/>
-      <c r="K90" s="30"/>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="87"/>
@@ -4144,13 +4152,13 @@
       <c r="F91" s="86"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I91" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I91" s="20"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J91" s="20"/>
-      <c r="K91" s="30"/>
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="87"/>
@@ -4160,13 +4168,13 @@
       <c r="F92" s="86"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I92" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="I92" s="20"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J92" s="20"/>
-      <c r="K92" s="30"/>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="87"/>
@@ -4176,13 +4184,13 @@
       <c r="F93" s="86"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I93" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="I93" s="20"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J93" s="20"/>
-      <c r="K93" s="30"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="87"/>
@@ -4190,15 +4198,15 @@
       <c r="D94" s="86"/>
       <c r="E94" s="80"/>
       <c r="F94" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
-      <c r="I94" s="62" t="s">
+      <c r="I94" s="20"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J94" s="20"/>
-      <c r="K94" s="30"/>
     </row>
     <row r="95" spans="2:11" ht="14.25" thickBot="1">
       <c r="B95" s="88"/>
@@ -4206,15 +4214,15 @@
       <c r="D95" s="90"/>
       <c r="E95" s="89"/>
       <c r="F95" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G95" s="32"/>
       <c r="H95" s="32"/>
-      <c r="I95" s="62" t="s">
+      <c r="I95" s="32"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J95" s="32"/>
-      <c r="K95" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4225,8 +4233,9 @@
     <mergeCell ref="G61:G64"/>
     <mergeCell ref="G67:G70"/>
     <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G43:G46"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="F52:F55"/>
     <mergeCell ref="G34:G36"/>
     <mergeCell ref="B5:B95"/>
@@ -4241,15 +4250,14 @@
     <mergeCell ref="F9:F22"/>
     <mergeCell ref="G82:G84"/>
     <mergeCell ref="F77:F85"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G56:G59"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G43:G44"/>
     <mergeCell ref="G20:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4295,7 +4303,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>1</v>
@@ -4313,16 +4321,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="F5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -4338,10 +4346,10 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -4357,10 +4365,10 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="19"/>
@@ -4376,10 +4384,10 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="19"/>
@@ -4411,13 +4419,13 @@
       <c r="B10" s="87"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
@@ -4433,13 +4441,13 @@
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>106</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>107</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="22" t="s">
@@ -4454,7 +4462,7 @@
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
       <c r="E12" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -4488,16 +4496,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>34</v>
@@ -4511,7 +4519,7 @@
       <c r="C15" s="84"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
@@ -4527,10 +4535,10 @@
       <c r="B16" s="95"/>
       <c r="C16" s="84"/>
       <c r="D16" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -4547,7 +4555,7 @@
       <c r="C17" s="84"/>
       <c r="D17" s="80"/>
       <c r="E17" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="37"/>
@@ -4564,7 +4572,7 @@
       <c r="C18" s="84"/>
       <c r="D18" s="80"/>
       <c r="E18" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -4581,7 +4589,7 @@
       <c r="C19" s="85"/>
       <c r="D19" s="80"/>
       <c r="E19" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
@@ -4596,16 +4604,16 @@
     <row r="20" spans="2:12">
       <c r="B20" s="52"/>
       <c r="C20" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
       <c r="H20" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>34</v>
@@ -4619,7 +4627,7 @@
       <c r="C21" s="84"/>
       <c r="D21" s="21"/>
       <c r="E21" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
@@ -4638,15 +4646,15 @@
       <c r="C22" s="84"/>
       <c r="D22" s="36"/>
       <c r="E22" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="84"/>
       <c r="I22" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="19"/>
@@ -4657,15 +4665,15 @@
       <c r="C23" s="84"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="84"/>
       <c r="I23" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="19"/>
@@ -4676,13 +4684,13 @@
       <c r="C24" s="85"/>
       <c r="D24" s="36"/>
       <c r="E24" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
       <c r="H24" s="85"/>
       <c r="I24" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="19"/>
@@ -4693,19 +4701,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
       <c r="H25" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="19"/>
@@ -4716,13 +4724,13 @@
       <c r="C26" s="84"/>
       <c r="D26" s="36"/>
       <c r="E26" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="92"/>
       <c r="I26" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="19"/>
@@ -4733,15 +4741,15 @@
       <c r="C27" s="84"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27" s="92"/>
       <c r="I27" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="19"/>
@@ -4752,15 +4760,15 @@
       <c r="C28" s="85"/>
       <c r="D28" s="36"/>
       <c r="E28" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="93"/>
       <c r="I28" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="19"/>
@@ -5469,7 +5477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -5487,22 +5495,22 @@
     <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="26.25" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="54">
@@ -5510,14 +5518,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>209</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="49">
         <v>43333</v>
@@ -5528,14 +5536,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="49">
         <v>43333</v>
@@ -5546,28 +5554,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>214</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="69"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="189">
+    <row r="6" spans="2:7" ht="162">
       <c r="B6" s="45">
         <v>4</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" s="49">
         <v>43333</v>
@@ -5578,14 +5586,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>216</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>217</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="49">
         <v>43357</v>
@@ -5596,16 +5604,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="E8" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>220</v>
-      </c>
       <c r="F8" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="49">
         <v>43333</v>
@@ -5616,14 +5624,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="74" t="s">
         <v>221</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>222</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" s="49">
         <v>43357</v>
@@ -5634,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="69"/>
@@ -5651,7 +5659,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="69"/>
@@ -5662,10 +5670,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="69"/>
@@ -5676,16 +5684,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>229</v>
-      </c>
       <c r="F13" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G13" s="49">
         <v>43333</v>
@@ -5696,14 +5704,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>230</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>231</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G14" s="49">
         <v>43334</v>
@@ -5714,14 +5722,14 @@
         <v>13</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="49">
         <v>43334</v>
@@ -5732,14 +5740,14 @@
         <v>14</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" s="49">
         <v>43334</v>
@@ -5750,16 +5758,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>229</v>
-      </c>
       <c r="F17" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G17" s="49">
         <v>43334</v>
@@ -5770,34 +5778,34 @@
         <v>16</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>229</v>
-      </c>
       <c r="F18" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" s="49">
         <v>43334</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="81">
+    <row r="19" spans="2:7" ht="67.5">
       <c r="B19" s="45">
         <v>17</v>
       </c>
       <c r="C19" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>235</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>236</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" s="49">
         <v>43354</v>
@@ -5808,14 +5816,14 @@
         <v>18</v>
       </c>
       <c r="C20" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>237</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>238</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" s="49">
         <v>43334</v>
@@ -5826,14 +5834,14 @@
         <v>19</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G21" s="49">
         <v>43363</v>
@@ -5844,14 +5852,14 @@
         <v>20</v>
       </c>
       <c r="C22" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>240</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>241</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="49">
         <v>43334</v>
@@ -5862,14 +5870,14 @@
         <v>21</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="49">
         <v>43334</v>
@@ -5880,7 +5888,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -5892,14 +5900,14 @@
         <v>23</v>
       </c>
       <c r="C25" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>244</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>245</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="49">
         <v>43334</v>
@@ -5910,7 +5918,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -5922,14 +5930,14 @@
         <v>25</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G27" s="49">
         <v>43335</v>
@@ -5940,14 +5948,14 @@
         <v>26</v>
       </c>
       <c r="C28" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="47" t="s">
         <v>248</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>249</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G28" s="49">
         <v>43339</v>
@@ -5958,14 +5966,14 @@
         <v>27</v>
       </c>
       <c r="C29" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>250</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>251</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G29" s="49">
         <v>43339</v>
@@ -5976,14 +5984,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>252</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>253</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="49">
         <v>43341</v>
@@ -5994,14 +6002,14 @@
         <v>29</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G31" s="49">
         <v>43341</v>
@@ -6012,14 +6020,14 @@
         <v>30</v>
       </c>
       <c r="C32" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="58" t="s">
         <v>255</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>256</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G32" s="49">
         <v>43348</v>
@@ -6030,14 +6038,14 @@
         <v>31</v>
       </c>
       <c r="C33" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>257</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>258</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G33" s="49">
         <v>43342</v>
@@ -6048,14 +6056,14 @@
         <v>32</v>
       </c>
       <c r="C34" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="47" t="s">
         <v>259</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>260</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G34" s="49">
         <v>43342</v>
@@ -6066,16 +6074,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="E35" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="47" t="s">
-        <v>263</v>
-      </c>
       <c r="F35" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G35" s="49">
         <v>43350</v>
@@ -6086,16 +6094,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="E36" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="E36" s="47" t="s">
-        <v>266</v>
-      </c>
       <c r="F36" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="49">
         <v>43348</v>
@@ -6106,14 +6114,14 @@
         <v>35</v>
       </c>
       <c r="C37" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>267</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>268</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="49">
         <v>43348</v>
@@ -6124,7 +6132,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6136,14 +6144,14 @@
         <v>37</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G39" s="49">
         <v>43348</v>
@@ -6154,14 +6162,14 @@
         <v>38</v>
       </c>
       <c r="C40" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>271</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>272</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G40" s="49">
         <v>43350</v>
@@ -6172,14 +6180,14 @@
         <v>39</v>
       </c>
       <c r="C41" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>273</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>274</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G41" s="49">
         <v>43350</v>
@@ -6190,14 +6198,14 @@
         <v>40</v>
       </c>
       <c r="C42" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="D42" s="47" t="s">
         <v>275</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>276</v>
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42" s="49">
         <v>43354</v>
@@ -6208,16 +6216,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>278</v>
-      </c>
       <c r="F43" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G43" s="49">
         <v>43350</v>
@@ -6228,14 +6236,14 @@
         <v>42</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G44" s="49">
         <v>43353</v>
@@ -6246,14 +6254,14 @@
         <v>43</v>
       </c>
       <c r="C45" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="47" t="s">
         <v>280</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>281</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G45" s="49">
         <v>43350</v>
@@ -6264,16 +6272,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="E46" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>284</v>
-      </c>
       <c r="F46" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G46" s="49">
         <v>43353</v>
@@ -6284,14 +6292,14 @@
         <v>45</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G47" s="49">
         <v>43354</v>
@@ -6302,14 +6310,14 @@
         <v>46</v>
       </c>
       <c r="C48" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="47" t="s">
         <v>286</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>287</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G48" s="49">
         <v>43353</v>
@@ -6320,14 +6328,14 @@
         <v>47</v>
       </c>
       <c r="C49" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="47" t="s">
         <v>288</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>289</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G49" s="49">
         <v>43350</v>
@@ -6338,14 +6346,14 @@
         <v>48</v>
       </c>
       <c r="C50" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>290</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>291</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G50" s="49">
         <v>43354</v>
@@ -6356,14 +6364,14 @@
         <v>49</v>
       </c>
       <c r="C51" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="47" t="s">
         <v>292</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>293</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G51" s="49">
         <v>43354</v>
@@ -6374,14 +6382,14 @@
         <v>50</v>
       </c>
       <c r="C52" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="47" t="s">
         <v>294</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>295</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G52" s="49">
         <v>43356</v>
@@ -6392,14 +6400,14 @@
         <v>51</v>
       </c>
       <c r="C53" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="47" t="s">
         <v>296</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>297</v>
       </c>
       <c r="E53" s="47"/>
       <c r="F53" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G53" s="49">
         <v>43357</v>
@@ -6410,14 +6418,14 @@
         <v>52</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E54" s="47"/>
       <c r="F54" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" s="49">
         <v>43360</v>
@@ -6428,14 +6436,14 @@
         <v>53</v>
       </c>
       <c r="C55" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="E55" s="47"/>
       <c r="F55" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G55" s="49">
         <v>43360</v>
@@ -6446,14 +6454,14 @@
         <v>54</v>
       </c>
       <c r="C56" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="47" t="s">
         <v>301</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>302</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G56" s="49">
         <v>43361</v>
@@ -6464,14 +6472,14 @@
         <v>55</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G57" s="49">
         <v>43362</v>
@@ -6482,14 +6490,14 @@
         <v>56</v>
       </c>
       <c r="C58" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="47" t="s">
         <v>304</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>305</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G58" s="49">
         <v>43362</v>
@@ -6500,14 +6508,14 @@
         <v>57</v>
       </c>
       <c r="C59" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="47" t="s">
         <v>306</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>307</v>
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G59" s="49">
         <v>43363</v>
@@ -6518,16 +6526,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="E60" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="D60" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>348</v>
-      </c>
       <c r="F60" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G60" s="49">
         <v>43385</v>
@@ -6538,28 +6546,40 @@
         <v>59</v>
       </c>
       <c r="C61" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="D61" s="47" t="s">
-        <v>351</v>
-      </c>
       <c r="E61" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G61" s="49">
         <v>43385</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="5"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="6"/>
+    <row r="62" spans="2:7" ht="67.5">
+      <c r="B62" s="45">
+        <v>60</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" s="49">
+        <v>43385</v>
+      </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="5"/>
@@ -7316,20 +7336,20 @@
   <sheetData>
     <row r="3" spans="3:8" ht="34.5" customHeight="1">
       <c r="C3" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>309</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>310</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>311</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="27" customHeight="1">
@@ -7337,16 +7357,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="F4" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="G4" s="71" t="s">
         <v>315</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>316</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -7355,10 +7375,10 @@
       <c r="D5" s="104"/>
       <c r="E5" s="101"/>
       <c r="F5" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5" s="70"/>
     </row>
@@ -7367,10 +7387,10 @@
       <c r="D6" s="104"/>
       <c r="E6" s="102"/>
       <c r="F6" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H6" s="70"/>
     </row>
@@ -7379,16 +7399,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>320</v>
-      </c>
       <c r="F7" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="71" t="s">
         <v>315</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>316</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -7397,10 +7417,10 @@
       <c r="D8" s="104"/>
       <c r="E8" s="102"/>
       <c r="F8" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H8" s="70"/>
     </row>
@@ -7408,13 +7428,13 @@
       <c r="C9" s="103"/>
       <c r="D9" s="104"/>
       <c r="E9" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>321</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>322</v>
       </c>
       <c r="H9" s="70"/>
     </row>
@@ -7423,16 +7443,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="71" t="s">
         <v>315</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>316</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -7441,10 +7461,10 @@
       <c r="D11" s="104"/>
       <c r="E11" s="102"/>
       <c r="F11" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H11" s="70"/>
     </row>
@@ -7452,13 +7472,13 @@
       <c r="C12" s="103"/>
       <c r="D12" s="104"/>
       <c r="E12" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="70"/>
     </row>
@@ -7467,16 +7487,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F13" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="71" t="s">
         <v>315</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>316</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -7485,10 +7505,10 @@
       <c r="D14" s="104"/>
       <c r="E14" s="102"/>
       <c r="F14" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="70"/>
     </row>
@@ -7496,13 +7516,13 @@
       <c r="C15" s="103"/>
       <c r="D15" s="104"/>
       <c r="E15" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H15" s="70"/>
     </row>
@@ -7511,16 +7531,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -7529,10 +7549,10 @@
       <c r="D17" s="104"/>
       <c r="E17" s="102"/>
       <c r="F17" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" s="70"/>
     </row>
@@ -7540,10 +7560,10 @@
       <c r="C18" s="103"/>
       <c r="D18" s="104"/>
       <c r="E18" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F18" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G18" s="71"/>
       <c r="H18" s="70"/>
@@ -7553,16 +7573,16 @@
         <v>6</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -7571,10 +7591,10 @@
       <c r="D20" s="104"/>
       <c r="E20" s="102"/>
       <c r="F20" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H20" s="70"/>
     </row>
@@ -7582,13 +7602,13 @@
       <c r="C21" s="103"/>
       <c r="D21" s="104"/>
       <c r="E21" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H21" s="70"/>
     </row>
@@ -7597,16 +7617,16 @@
         <v>7</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -7615,10 +7635,10 @@
       <c r="D23" s="104"/>
       <c r="E23" s="102"/>
       <c r="F23" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H23" s="70"/>
     </row>
@@ -7626,13 +7646,13 @@
       <c r="C24" s="99"/>
       <c r="D24" s="104"/>
       <c r="E24" s="78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H24" s="70"/>
     </row>
@@ -7641,16 +7661,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G25" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -7659,10 +7679,10 @@
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
       <c r="F26" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H26" s="70"/>
     </row>
@@ -7670,13 +7690,13 @@
       <c r="C27" s="99"/>
       <c r="D27" s="102"/>
       <c r="E27" s="78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H27" s="70"/>
     </row>
@@ -7685,16 +7705,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E28" s="100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -7703,10 +7723,10 @@
       <c r="D29" s="101"/>
       <c r="E29" s="102"/>
       <c r="F29" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G29" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H29" s="70"/>
     </row>
@@ -7714,13 +7734,13 @@
       <c r="C30" s="99"/>
       <c r="D30" s="102"/>
       <c r="E30" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H30" s="70"/>
     </row>
@@ -7729,7 +7749,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="71"/>
@@ -7757,7 +7777,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="71"/>
@@ -7785,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="70"/>
@@ -8371,16 +8391,16 @@
   <sheetData>
     <row r="3" spans="3:7" ht="29.25" customHeight="1">
       <c r="C3" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>185</v>
-      </c>
       <c r="E3" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="68" t="s">
         <v>32</v>
@@ -8391,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>3</v>
@@ -8406,10 +8426,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="72"/>
@@ -8419,10 +8439,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="72"/>
@@ -8432,10 +8452,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="72"/>
@@ -8445,10 +8465,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="72"/>
@@ -8458,10 +8478,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="72"/>
@@ -8471,10 +8491,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>200</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>201</v>
       </c>
       <c r="F10" s="68"/>
       <c r="G10" s="72"/>

--- a/LNG2.X_LY TEST REPORT.xlsx
+++ b/LNG2.X_LY TEST REPORT.xlsx
@@ -2244,40 +2244,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,14 +2298,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2307,19 +2319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2623,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75:H76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2667,13 +2667,13 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="34.5" customHeight="1">
-      <c r="B5" s="87">
+      <c r="B5" s="84">
         <v>1</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="79" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="54"/>
@@ -2691,9 +2691,9 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="87"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="80"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="54"/>
       <c r="F6" s="20" t="s">
         <v>6</v>
@@ -2709,11 +2709,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B7" s="87"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="80"/>
-      <c r="D7" s="86"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="79" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="54"/>
@@ -2723,35 +2723,35 @@
       <c r="I7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="88">
         <v>43333</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="89" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B8" s="87"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="86"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="54"/>
       <c r="H8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="80"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="82"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="2:12" ht="40.5">
-      <c r="B9" s="87"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="86"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="80"/>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="80" t="s">
@@ -2770,11 +2770,11 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" ht="27">
-      <c r="B10" s="87"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="80"/>
-      <c r="D10" s="86"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="80"/>
-      <c r="F10" s="86"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="80"/>
       <c r="H10" s="20" t="s">
         <v>55</v>
@@ -2789,11 +2789,11 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" ht="27">
-      <c r="B11" s="87"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="80"/>
-      <c r="D11" s="86"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="80"/>
-      <c r="F11" s="86"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="20" t="s">
         <v>21</v>
@@ -2808,11 +2808,11 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="87"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="86"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="80"/>
-      <c r="F12" s="86"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="20" t="s">
         <v>22</v>
@@ -2825,11 +2825,11 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="87"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="86"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="80"/>
-      <c r="F13" s="86"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
         <v>23</v>
@@ -2841,11 +2841,11 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="87"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="86"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="80"/>
-      <c r="F14" s="86"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="80" t="s">
         <v>29</v>
       </c>
@@ -2859,11 +2859,11 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="87"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="86"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="80"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="20" t="s">
         <v>25</v>
@@ -2875,11 +2875,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="87"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="80"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="80"/>
       <c r="H16" s="20" t="s">
         <v>26</v>
@@ -2891,11 +2891,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="87"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="86"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="80"/>
-      <c r="F17" s="86"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="20" t="s">
         <v>27</v>
@@ -2907,11 +2907,11 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="87"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="86"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="59"/>
       <c r="H18" s="20" t="s">
         <v>28</v>
@@ -2923,11 +2923,11 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="87"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="80"/>
-      <c r="D19" s="86"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="86"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="59"/>
       <c r="H19" s="20" t="s">
         <v>23</v>
@@ -2939,12 +2939,12 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="87"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="80"/>
-      <c r="D20" s="86"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="83" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H20" s="20" t="s">
@@ -2957,12 +2957,12 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="87"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="80"/>
-      <c r="D21" s="86"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="84"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="20" t="s">
         <v>161</v>
       </c>
@@ -2973,12 +2973,12 @@
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="87"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="85"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="20" t="s">
         <v>28</v>
       </c>
@@ -2987,11 +2987,11 @@
       <c r="K22" s="54"/>
     </row>
     <row r="23" spans="2:11" ht="40.5">
-      <c r="B23" s="87"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="86"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="86" t="s">
+      <c r="F23" s="79" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="80" t="s">
@@ -3009,11 +3009,11 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="27">
-      <c r="B24" s="87"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="80"/>
-      <c r="D24" s="86"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="86"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="80"/>
       <c r="H24" s="20" t="s">
         <v>37</v>
@@ -3027,11 +3027,11 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="87"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="86"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="80"/>
-      <c r="F25" s="86"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="80"/>
       <c r="H25" s="20" t="s">
         <v>38</v>
@@ -3043,11 +3043,11 @@
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="87"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="80"/>
-      <c r="D26" s="86"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="80"/>
-      <c r="F26" s="86"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="80"/>
       <c r="H26" s="20" t="s">
         <v>39</v>
@@ -3059,11 +3059,11 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="87"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="80"/>
-      <c r="D27" s="86"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="80"/>
-      <c r="F27" s="86"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
         <v>23</v>
@@ -3075,11 +3075,11 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="87"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="80"/>
-      <c r="D28" s="86"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="80"/>
-      <c r="F28" s="86"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="80" t="s">
         <v>50</v>
       </c>
@@ -3095,11 +3095,11 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="87"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="80"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="80"/>
-      <c r="F29" s="86"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="80"/>
       <c r="H29" s="20" t="s">
         <v>41</v>
@@ -3113,11 +3113,11 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="87"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="80"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="80"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="80"/>
       <c r="H30" s="20" t="s">
         <v>42</v>
@@ -3129,11 +3129,11 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="87"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="80"/>
-      <c r="D31" s="86"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="80"/>
-      <c r="F31" s="86"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="80"/>
       <c r="H31" s="20" t="s">
         <v>43</v>
@@ -3145,11 +3145,11 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="87"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="80"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="80"/>
-      <c r="F32" s="86"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
         <v>44</v>
@@ -3161,11 +3161,11 @@
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="87"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="80"/>
-      <c r="D33" s="86"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="80"/>
-      <c r="F33" s="86"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
         <v>23</v>
@@ -3177,11 +3177,11 @@
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="87"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="80"/>
-      <c r="D34" s="86"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="80"/>
-      <c r="F34" s="86"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="80" t="s">
         <v>51</v>
       </c>
@@ -3195,11 +3195,11 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="87"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="80"/>
-      <c r="D35" s="86"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="80"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="80"/>
       <c r="H35" s="20" t="s">
         <v>46</v>
@@ -3211,11 +3211,11 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="87"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="80"/>
-      <c r="D36" s="86"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="80"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="80"/>
       <c r="H36" s="20" t="s">
         <v>47</v>
@@ -3227,11 +3227,11 @@
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="87"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="80"/>
-      <c r="D37" s="86"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="80"/>
-      <c r="F37" s="86"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
         <v>44</v>
@@ -3243,11 +3243,11 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B38" s="87"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="80"/>
-      <c r="D38" s="86"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="80"/>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="79" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="80" t="s">
@@ -3265,11 +3265,11 @@
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="87"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="80"/>
-      <c r="D39" s="86"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="80"/>
-      <c r="F39" s="86"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="80"/>
       <c r="H39" s="20" t="s">
         <v>175</v>
@@ -3283,11 +3283,11 @@
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="87"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="80"/>
-      <c r="D40" s="86"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="80"/>
-      <c r="F40" s="86"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="80"/>
       <c r="H40" s="20" t="s">
         <v>176</v>
@@ -3299,11 +3299,11 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="87"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="80"/>
-      <c r="D41" s="86"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="80"/>
-      <c r="F41" s="86"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
         <v>177</v>
@@ -3315,11 +3315,11 @@
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="87"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="80"/>
-      <c r="D42" s="86"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="80"/>
-      <c r="F42" s="86"/>
+      <c r="F42" s="79"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20" t="s">
         <v>23</v>
@@ -3331,12 +3331,12 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B43" s="87"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="80"/>
-      <c r="D43" s="86"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="80"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="83" t="s">
+      <c r="F43" s="79"/>
+      <c r="G43" s="81" t="s">
         <v>61</v>
       </c>
       <c r="H43" s="20" t="s">
@@ -3349,12 +3349,12 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="27">
-      <c r="B44" s="87"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="80"/>
-      <c r="D44" s="86"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="80"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="84"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="82"/>
       <c r="H44" s="20" t="s">
         <v>353</v>
       </c>
@@ -3367,12 +3367,12 @@
       </c>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="87"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="80"/>
-      <c r="D45" s="86"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="80"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="84"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="82"/>
       <c r="H45" s="20" t="s">
         <v>178</v>
       </c>
@@ -3383,12 +3383,12 @@
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="87"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="80"/>
-      <c r="D46" s="86"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="80"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="85"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="20" t="s">
         <v>179</v>
       </c>
@@ -3401,11 +3401,11 @@
       </c>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="87"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="80"/>
-      <c r="D47" s="86"/>
+      <c r="D47" s="79"/>
       <c r="E47" s="80"/>
-      <c r="F47" s="86"/>
+      <c r="F47" s="79"/>
       <c r="G47" s="67"/>
       <c r="H47" s="20" t="s">
         <v>28</v>
@@ -3417,11 +3417,11 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="87"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="80"/>
-      <c r="D48" s="86"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="80"/>
-      <c r="F48" s="86"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="67"/>
       <c r="H48" s="20" t="s">
         <v>23</v>
@@ -3433,11 +3433,11 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="87"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="80"/>
-      <c r="D49" s="86"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="80"/>
-      <c r="F49" s="86"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="80" t="s">
         <v>181</v>
       </c>
@@ -3451,11 +3451,11 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="87"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="80"/>
-      <c r="D50" s="86"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="80"/>
-      <c r="F50" s="86"/>
+      <c r="F50" s="79"/>
       <c r="G50" s="80"/>
       <c r="H50" s="20" t="s">
         <v>44</v>
@@ -3467,9 +3467,9 @@
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="87"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="80"/>
-      <c r="D51" s="86"/>
+      <c r="D51" s="79"/>
       <c r="E51" s="54"/>
       <c r="F51" s="20" t="s">
         <v>8</v>
@@ -3483,13 +3483,13 @@
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="87"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="86"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="86" t="s">
+      <c r="F52" s="79" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="20"/>
@@ -3503,11 +3503,11 @@
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="87"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="80"/>
-      <c r="D53" s="86"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="80"/>
-      <c r="F53" s="86"/>
+      <c r="F53" s="79"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="s">
         <v>65</v>
@@ -3519,11 +3519,11 @@
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="87"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="80"/>
-      <c r="D54" s="86"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="80"/>
-      <c r="F54" s="86"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20" t="s">
         <v>66</v>
@@ -3535,11 +3535,11 @@
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="87"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="80"/>
-      <c r="D55" s="86"/>
+      <c r="D55" s="79"/>
       <c r="E55" s="80"/>
-      <c r="F55" s="86"/>
+      <c r="F55" s="79"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20" t="s">
         <v>67</v>
@@ -3551,11 +3551,11 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="87"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="80"/>
-      <c r="D56" s="86"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="80"/>
-      <c r="F56" s="86" t="s">
+      <c r="F56" s="79" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="80" t="s">
@@ -3571,11 +3571,11 @@
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="87"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="80"/>
-      <c r="D57" s="86"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="80"/>
-      <c r="F57" s="86"/>
+      <c r="F57" s="79"/>
       <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
         <v>69</v>
@@ -3587,11 +3587,11 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="87"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="80"/>
-      <c r="D58" s="86"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="80"/>
-      <c r="F58" s="86"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="80"/>
       <c r="H58" s="20" t="s">
         <v>70</v>
@@ -3603,11 +3603,11 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="87"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="80"/>
-      <c r="D59" s="86"/>
+      <c r="D59" s="79"/>
       <c r="E59" s="80"/>
-      <c r="F59" s="86"/>
+      <c r="F59" s="79"/>
       <c r="G59" s="80"/>
       <c r="H59" s="20" t="s">
         <v>71</v>
@@ -3619,11 +3619,11 @@
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="87"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="80"/>
-      <c r="D60" s="86"/>
+      <c r="D60" s="79"/>
       <c r="E60" s="80"/>
-      <c r="F60" s="86"/>
+      <c r="F60" s="79"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20" t="s">
         <v>23</v>
@@ -3635,11 +3635,11 @@
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="87"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="80"/>
-      <c r="D61" s="86"/>
+      <c r="D61" s="79"/>
       <c r="E61" s="80"/>
-      <c r="F61" s="86"/>
+      <c r="F61" s="79"/>
       <c r="G61" s="80" t="s">
         <v>82</v>
       </c>
@@ -3653,11 +3653,11 @@
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="87"/>
+      <c r="B62" s="84"/>
       <c r="C62" s="80"/>
-      <c r="D62" s="86"/>
+      <c r="D62" s="79"/>
       <c r="E62" s="80"/>
-      <c r="F62" s="86"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="80"/>
       <c r="H62" s="20" t="s">
         <v>73</v>
@@ -3669,11 +3669,11 @@
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="87"/>
+      <c r="B63" s="84"/>
       <c r="C63" s="80"/>
-      <c r="D63" s="86"/>
+      <c r="D63" s="79"/>
       <c r="E63" s="80"/>
-      <c r="F63" s="86"/>
+      <c r="F63" s="79"/>
       <c r="G63" s="80"/>
       <c r="H63" s="20" t="s">
         <v>74</v>
@@ -3685,11 +3685,11 @@
       </c>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="87"/>
+      <c r="B64" s="84"/>
       <c r="C64" s="80"/>
-      <c r="D64" s="86"/>
+      <c r="D64" s="79"/>
       <c r="E64" s="80"/>
-      <c r="F64" s="86"/>
+      <c r="F64" s="79"/>
       <c r="G64" s="80"/>
       <c r="H64" s="20" t="s">
         <v>75</v>
@@ -3701,11 +3701,11 @@
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="87"/>
+      <c r="B65" s="84"/>
       <c r="C65" s="80"/>
-      <c r="D65" s="86"/>
+      <c r="D65" s="79"/>
       <c r="E65" s="80"/>
-      <c r="F65" s="86"/>
+      <c r="F65" s="79"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20" t="s">
         <v>44</v>
@@ -3715,11 +3715,11 @@
       <c r="K65" s="54"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="87"/>
+      <c r="B66" s="84"/>
       <c r="C66" s="80"/>
-      <c r="D66" s="86"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="80"/>
-      <c r="F66" s="86"/>
+      <c r="F66" s="79"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20" t="s">
         <v>23</v>
@@ -3731,11 +3731,11 @@
       </c>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="87"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="80"/>
-      <c r="D67" s="86"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="80"/>
-      <c r="F67" s="86"/>
+      <c r="F67" s="79"/>
       <c r="G67" s="80" t="s">
         <v>83</v>
       </c>
@@ -3749,11 +3749,11 @@
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="87"/>
+      <c r="B68" s="84"/>
       <c r="C68" s="80"/>
-      <c r="D68" s="86"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="80"/>
-      <c r="F68" s="86"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="80"/>
       <c r="H68" s="20" t="s">
         <v>77</v>
@@ -3765,11 +3765,11 @@
       </c>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="87"/>
+      <c r="B69" s="84"/>
       <c r="C69" s="80"/>
-      <c r="D69" s="86"/>
+      <c r="D69" s="79"/>
       <c r="E69" s="80"/>
-      <c r="F69" s="86"/>
+      <c r="F69" s="79"/>
       <c r="G69" s="80"/>
       <c r="H69" s="20" t="s">
         <v>78</v>
@@ -3781,11 +3781,11 @@
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="87"/>
+      <c r="B70" s="84"/>
       <c r="C70" s="80"/>
-      <c r="D70" s="86"/>
+      <c r="D70" s="79"/>
       <c r="E70" s="80"/>
-      <c r="F70" s="86"/>
+      <c r="F70" s="79"/>
       <c r="G70" s="80"/>
       <c r="H70" s="20" t="s">
         <v>79</v>
@@ -3797,11 +3797,11 @@
       </c>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="87"/>
+      <c r="B71" s="84"/>
       <c r="C71" s="80"/>
-      <c r="D71" s="86"/>
+      <c r="D71" s="79"/>
       <c r="E71" s="80"/>
-      <c r="F71" s="86"/>
+      <c r="F71" s="79"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20" t="s">
         <v>44</v>
@@ -3813,11 +3813,11 @@
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="87"/>
+      <c r="B72" s="84"/>
       <c r="C72" s="80"/>
-      <c r="D72" s="86"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="80"/>
-      <c r="F72" s="86"/>
+      <c r="F72" s="79"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20" t="s">
         <v>23</v>
@@ -3829,11 +3829,11 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="27">
-      <c r="B73" s="87"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="80"/>
-      <c r="D73" s="86"/>
+      <c r="D73" s="79"/>
       <c r="E73" s="80"/>
-      <c r="F73" s="86"/>
+      <c r="F73" s="79"/>
       <c r="G73" s="23" t="s">
         <v>84</v>
       </c>
@@ -3847,11 +3847,11 @@
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="87"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="80"/>
-      <c r="D74" s="86"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="80"/>
-      <c r="F74" s="86"/>
+      <c r="F74" s="79"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20" t="s">
         <v>44</v>
@@ -3863,11 +3863,11 @@
       </c>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="87"/>
+      <c r="B75" s="84"/>
       <c r="C75" s="80"/>
-      <c r="D75" s="86"/>
+      <c r="D75" s="79"/>
       <c r="E75" s="80"/>
-      <c r="F75" s="86" t="s">
+      <c r="F75" s="79" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="20"/>
@@ -3881,11 +3881,11 @@
       </c>
     </row>
     <row r="76" spans="2:11" ht="27">
-      <c r="B76" s="87"/>
+      <c r="B76" s="84"/>
       <c r="C76" s="80"/>
-      <c r="D76" s="86"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="80"/>
-      <c r="F76" s="86"/>
+      <c r="F76" s="79"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
         <v>86</v>
@@ -3899,11 +3899,11 @@
       </c>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="87"/>
+      <c r="B77" s="84"/>
       <c r="C77" s="80"/>
-      <c r="D77" s="86"/>
+      <c r="D77" s="79"/>
       <c r="E77" s="80"/>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="79" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="80" t="s">
@@ -3919,11 +3919,11 @@
       </c>
     </row>
     <row r="78" spans="2:11" ht="40.5">
-      <c r="B78" s="87"/>
+      <c r="B78" s="84"/>
       <c r="C78" s="80"/>
-      <c r="D78" s="86"/>
+      <c r="D78" s="79"/>
       <c r="E78" s="80"/>
-      <c r="F78" s="86"/>
+      <c r="F78" s="79"/>
       <c r="G78" s="80"/>
       <c r="H78" s="20" t="s">
         <v>164</v>
@@ -3939,11 +3939,11 @@
       </c>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="87"/>
+      <c r="B79" s="84"/>
       <c r="C79" s="80"/>
-      <c r="D79" s="86"/>
+      <c r="D79" s="79"/>
       <c r="E79" s="80"/>
-      <c r="F79" s="86"/>
+      <c r="F79" s="79"/>
       <c r="G79" s="80"/>
       <c r="H79" s="20" t="s">
         <v>165</v>
@@ -3955,11 +3955,11 @@
       </c>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="87"/>
+      <c r="B80" s="84"/>
       <c r="C80" s="80"/>
-      <c r="D80" s="86"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="80"/>
-      <c r="F80" s="86"/>
+      <c r="F80" s="79"/>
       <c r="G80" s="80"/>
       <c r="H80" s="20" t="s">
         <v>166</v>
@@ -3973,11 +3973,11 @@
       </c>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="87"/>
+      <c r="B81" s="84"/>
       <c r="C81" s="80"/>
-      <c r="D81" s="86"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="80"/>
-      <c r="F81" s="86"/>
+      <c r="F81" s="79"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20" t="s">
         <v>23</v>
@@ -3989,11 +3989,11 @@
       </c>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="87"/>
+      <c r="B82" s="84"/>
       <c r="C82" s="80"/>
-      <c r="D82" s="86"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="80"/>
-      <c r="F82" s="86"/>
+      <c r="F82" s="79"/>
       <c r="G82" s="80" t="s">
         <v>89</v>
       </c>
@@ -4007,11 +4007,11 @@
       </c>
     </row>
     <row r="83" spans="2:11" ht="81">
-      <c r="B83" s="87"/>
+      <c r="B83" s="84"/>
       <c r="C83" s="80"/>
-      <c r="D83" s="86"/>
+      <c r="D83" s="79"/>
       <c r="E83" s="80"/>
-      <c r="F83" s="86"/>
+      <c r="F83" s="79"/>
       <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
         <v>169</v>
@@ -4027,11 +4027,11 @@
       </c>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="87"/>
+      <c r="B84" s="84"/>
       <c r="C84" s="80"/>
-      <c r="D84" s="86"/>
+      <c r="D84" s="79"/>
       <c r="E84" s="80"/>
-      <c r="F84" s="86"/>
+      <c r="F84" s="79"/>
       <c r="G84" s="80"/>
       <c r="H84" s="20" t="s">
         <v>170</v>
@@ -4043,11 +4043,11 @@
       </c>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="87"/>
+      <c r="B85" s="84"/>
       <c r="C85" s="80"/>
-      <c r="D85" s="86"/>
+      <c r="D85" s="79"/>
       <c r="E85" s="80"/>
-      <c r="F85" s="86"/>
+      <c r="F85" s="79"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20" t="s">
         <v>44</v>
@@ -4059,9 +4059,9 @@
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="87"/>
+      <c r="B86" s="84"/>
       <c r="C86" s="80"/>
-      <c r="D86" s="86"/>
+      <c r="D86" s="79"/>
       <c r="E86" s="80"/>
       <c r="F86" s="20" t="s">
         <v>10</v>
@@ -4075,13 +4075,13 @@
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="87"/>
+      <c r="B87" s="84"/>
       <c r="C87" s="80"/>
-      <c r="D87" s="86"/>
+      <c r="D87" s="79"/>
       <c r="E87" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="F87" s="86" t="s">
+      <c r="F87" s="79" t="s">
         <v>138</v>
       </c>
       <c r="G87" s="20"/>
@@ -4095,11 +4095,11 @@
       </c>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="87"/>
+      <c r="B88" s="84"/>
       <c r="C88" s="80"/>
-      <c r="D88" s="86"/>
+      <c r="D88" s="79"/>
       <c r="E88" s="80"/>
-      <c r="F88" s="86"/>
+      <c r="F88" s="79"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
         <v>142</v>
@@ -4111,11 +4111,11 @@
       </c>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="87"/>
+      <c r="B89" s="84"/>
       <c r="C89" s="80"/>
-      <c r="D89" s="86"/>
+      <c r="D89" s="79"/>
       <c r="E89" s="80"/>
-      <c r="F89" s="86"/>
+      <c r="F89" s="79"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="s">
         <v>143</v>
@@ -4127,11 +4127,11 @@
       </c>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="87"/>
+      <c r="B90" s="84"/>
       <c r="C90" s="80"/>
-      <c r="D90" s="86"/>
+      <c r="D90" s="79"/>
       <c r="E90" s="80"/>
-      <c r="F90" s="86" t="s">
+      <c r="F90" s="79" t="s">
         <v>148</v>
       </c>
       <c r="G90" s="20"/>
@@ -4145,11 +4145,11 @@
       </c>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="87"/>
+      <c r="B91" s="84"/>
       <c r="C91" s="80"/>
-      <c r="D91" s="86"/>
+      <c r="D91" s="79"/>
       <c r="E91" s="80"/>
-      <c r="F91" s="86"/>
+      <c r="F91" s="79"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20" t="s">
         <v>145</v>
@@ -4161,11 +4161,11 @@
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="87"/>
+      <c r="B92" s="84"/>
       <c r="C92" s="80"/>
-      <c r="D92" s="86"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="80"/>
-      <c r="F92" s="86"/>
+      <c r="F92" s="79"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20" t="s">
         <v>146</v>
@@ -4177,11 +4177,11 @@
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="87"/>
+      <c r="B93" s="84"/>
       <c r="C93" s="80"/>
-      <c r="D93" s="86"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="80"/>
-      <c r="F93" s="86"/>
+      <c r="F93" s="79"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="s">
         <v>147</v>
@@ -4193,9 +4193,9 @@
       </c>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="87"/>
+      <c r="B94" s="84"/>
       <c r="C94" s="80"/>
-      <c r="D94" s="86"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="80"/>
       <c r="F94" s="20" t="s">
         <v>139</v>
@@ -4209,10 +4209,10 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B95" s="88"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="89"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="86"/>
       <c r="F95" s="32" t="s">
         <v>140</v>
       </c>
@@ -4226,14 +4226,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F38:F50"/>
-    <mergeCell ref="F56:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="F52:F55"/>
@@ -4250,15 +4251,14 @@
     <mergeCell ref="F9:F22"/>
     <mergeCell ref="G82:G84"/>
     <mergeCell ref="F77:F85"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F38:F50"/>
+    <mergeCell ref="F56:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G43:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4317,7 +4317,7 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="34.5" customHeight="1">
-      <c r="B5" s="87">
+      <c r="B5" s="84">
         <v>1</v>
       </c>
       <c r="C5" s="80" t="s">
@@ -4342,7 +4342,7 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="87"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="37" t="s">
@@ -4361,7 +4361,7 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B7" s="87"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="37" t="s">
@@ -4380,7 +4380,7 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="2:12" ht="40.5">
-      <c r="B8" s="87"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="37" t="s">
@@ -4399,7 +4399,7 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="87"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="80"/>
       <c r="D9" s="36"/>
       <c r="E9" s="37" t="s">
@@ -4416,7 +4416,7 @@
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="2:12" ht="81">
-      <c r="B10" s="87"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80" t="s">
         <v>100</v>
@@ -4437,7 +4437,7 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="87"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="37" t="s">
@@ -4458,7 +4458,7 @@
       <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="87"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
       <c r="E12" s="37" t="s">
@@ -4475,7 +4475,7 @@
       <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="87"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="80"/>
       <c r="D13" s="36"/>
       <c r="E13" s="37" t="s">
@@ -4492,10 +4492,10 @@
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="94">
+      <c r="B14" s="91">
         <v>2</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="36"/>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="81" t="s">
         <v>118</v>
       </c>
       <c r="I14" s="22" t="s">
@@ -4515,15 +4515,15 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="95"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="84"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="22" t="s">
         <v>34</v>
       </c>
@@ -4532,8 +4532,8 @@
       <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="95"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="80" t="s">
         <v>107</v>
       </c>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="84"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="22" t="s">
         <v>34</v>
       </c>
@@ -4551,15 +4551,15 @@
       <c r="L16" s="40"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="95"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="80"/>
       <c r="E17" s="37" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="84"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="22" t="s">
         <v>34</v>
       </c>
@@ -4568,15 +4568,15 @@
       <c r="L17" s="40"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="95"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="80"/>
       <c r="E18" s="37" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="84"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="22" t="s">
         <v>34</v>
       </c>
@@ -4585,15 +4585,15 @@
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="96"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="80"/>
       <c r="E19" s="37" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="22" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="52"/>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="21"/>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="83" t="s">
+      <c r="H20" s="81" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="22" t="s">
@@ -4624,14 +4624,14 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="52"/>
-      <c r="C21" s="84"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="21"/>
       <c r="E21" s="37" t="s">
         <v>109</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="84"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="22" t="s">
         <v>34</v>
       </c>
@@ -4640,10 +4640,10 @@
       <c r="L21" s="40"/>
     </row>
     <row r="22" spans="2:12" ht="27">
-      <c r="B22" s="94">
+      <c r="B22" s="91">
         <v>3</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="36"/>
       <c r="E22" s="37" t="s">
         <v>121</v>
@@ -4652,7 +4652,7 @@
       <c r="G22" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="22" t="s">
         <v>116</v>
       </c>
@@ -4661,8 +4661,8 @@
       <c r="L22" s="40"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="95"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37" t="s">
         <v>122</v>
@@ -4671,7 +4671,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="37"/>
-      <c r="H23" s="84"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="22" t="s">
         <v>116</v>
       </c>
@@ -4680,15 +4680,15 @@
       <c r="L23" s="40"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="96"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="36"/>
       <c r="E24" s="37" t="s">
         <v>123</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="22" t="s">
         <v>116</v>
       </c>
@@ -4697,10 +4697,10 @@
       <c r="L24" s="40"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="94">
+      <c r="B25" s="91">
         <v>4</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="36"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="94" t="s">
         <v>126</v>
       </c>
       <c r="I25" s="22" t="s">
@@ -4720,15 +4720,15 @@
       <c r="L25" s="40"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="95"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="36"/>
       <c r="E26" s="37" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="92"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="22" t="s">
         <v>116</v>
       </c>
@@ -4737,8 +4737,8 @@
       <c r="L26" s="40"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="95"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37" t="s">
         <v>129</v>
@@ -4747,7 +4747,7 @@
       <c r="G27" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="92"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="22" t="s">
         <v>116</v>
       </c>
@@ -4756,8 +4756,8 @@
       <c r="L27" s="40"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="96"/>
-      <c r="C28" s="85"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="36"/>
       <c r="E28" s="37" t="s">
         <v>130</v>
@@ -4766,7 +4766,7 @@
       <c r="G28" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="22" t="s">
         <v>116</v>
       </c>
@@ -5452,6 +5452,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="H20:H24"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C5:C13"/>
@@ -5459,13 +5466,6 @@
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="H20:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7353,13 +7353,13 @@
       </c>
     </row>
     <row r="4" spans="3:8" ht="27" customHeight="1">
-      <c r="C4" s="103">
+      <c r="C4" s="99">
         <v>1</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="97" t="s">
         <v>313</v>
       </c>
       <c r="F4" s="71" t="s">
@@ -7371,9 +7371,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:8" ht="18" customHeight="1">
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="70" t="s">
         <v>316</v>
       </c>
@@ -7383,9 +7383,9 @@
       <c r="H5" s="70"/>
     </row>
     <row r="6" spans="3:8" ht="18" customHeight="1">
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="102"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="70" t="s">
         <v>317</v>
       </c>
@@ -7395,13 +7395,13 @@
       <c r="H6" s="70"/>
     </row>
     <row r="7" spans="3:8" ht="30" customHeight="1">
-      <c r="C7" s="103">
+      <c r="C7" s="99">
         <v>2</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="97" t="s">
         <v>319</v>
       </c>
       <c r="F7" s="71" t="s">
@@ -7413,9 +7413,9 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="3:8" ht="30" customHeight="1">
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="70" t="s">
         <v>316</v>
       </c>
@@ -7425,8 +7425,8 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="3:8" ht="18.75" customHeight="1">
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="76" t="s">
         <v>320</v>
       </c>
@@ -7439,13 +7439,13 @@
       <c r="H9" s="70"/>
     </row>
     <row r="10" spans="3:8" ht="18.75" customHeight="1">
-      <c r="C10" s="103">
+      <c r="C10" s="99">
         <v>3</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="100" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="97" t="s">
         <v>336</v>
       </c>
       <c r="F10" s="71" t="s">
@@ -7457,9 +7457,9 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="3:8" ht="75" customHeight="1">
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="102"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="70" t="s">
         <v>316</v>
       </c>
@@ -7469,8 +7469,8 @@
       <c r="H11" s="70"/>
     </row>
     <row r="12" spans="3:8" ht="20.25" customHeight="1">
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="56" t="s">
         <v>323</v>
       </c>
@@ -7483,13 +7483,13 @@
       <c r="H12" s="70"/>
     </row>
     <row r="13" spans="3:8" ht="61.5" customHeight="1">
-      <c r="C13" s="103">
+      <c r="C13" s="99">
         <v>4</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="100" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="97" t="s">
         <v>337</v>
       </c>
       <c r="F13" s="71" t="s">
@@ -7501,9 +7501,9 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="3:8" ht="61.5" customHeight="1">
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="102"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="70" t="s">
         <v>316</v>
       </c>
@@ -7513,8 +7513,8 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="76" t="s">
         <v>325</v>
       </c>
@@ -7527,13 +7527,13 @@
       <c r="H15" s="70"/>
     </row>
     <row r="16" spans="3:8" ht="42" customHeight="1">
-      <c r="C16" s="103">
+      <c r="C16" s="99">
         <v>5</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="97" t="s">
         <v>333</v>
       </c>
       <c r="F16" s="71" t="s">
@@ -7545,9 +7545,9 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="3:8" ht="42" customHeight="1">
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="70" t="s">
         <v>316</v>
       </c>
@@ -7557,8 +7557,8 @@
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="3:8" ht="40.5">
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="75" t="s">
         <v>334</v>
       </c>
@@ -7569,13 +7569,13 @@
       <c r="H18" s="70"/>
     </row>
     <row r="19" spans="3:8" ht="60" customHeight="1">
-      <c r="C19" s="103">
+      <c r="C19" s="99">
         <v>6</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="100" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="97" t="s">
         <v>339</v>
       </c>
       <c r="F19" s="71" t="s">
@@ -7587,9 +7587,9 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="3:8" ht="60" customHeight="1">
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="102"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="70" t="s">
         <v>316</v>
       </c>
@@ -7599,8 +7599,8 @@
       <c r="H20" s="70"/>
     </row>
     <row r="21" spans="3:8" ht="40.5">
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="75" t="s">
         <v>335</v>
       </c>
@@ -7613,13 +7613,13 @@
       <c r="H21" s="70"/>
     </row>
     <row r="22" spans="3:8" ht="50.25" customHeight="1">
-      <c r="C22" s="97">
+      <c r="C22" s="101">
         <v>7</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="100" t="s">
         <v>328</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="97" t="s">
         <v>345</v>
       </c>
       <c r="F22" s="71" t="s">
@@ -7631,9 +7631,9 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="3:8" ht="50.25" customHeight="1">
-      <c r="C23" s="98"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="77" t="s">
         <v>316</v>
       </c>
@@ -7643,8 +7643,8 @@
       <c r="H23" s="70"/>
     </row>
     <row r="24" spans="3:8" ht="67.5">
-      <c r="C24" s="99"/>
-      <c r="D24" s="104"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="78" t="s">
         <v>344</v>
       </c>
@@ -7657,13 +7657,13 @@
       <c r="H24" s="70"/>
     </row>
     <row r="25" spans="3:8" ht="45.75" customHeight="1">
-      <c r="C25" s="97">
+      <c r="C25" s="101">
         <v>8</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="97" t="s">
         <v>340</v>
       </c>
       <c r="F25" s="71" t="s">
@@ -7675,9 +7675,9 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="3:8" ht="45.75" customHeight="1">
-      <c r="C26" s="98"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="77" t="s">
         <v>316</v>
       </c>
@@ -7687,8 +7687,8 @@
       <c r="H26" s="70"/>
     </row>
     <row r="27" spans="3:8" ht="54">
-      <c r="C27" s="99"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="78" t="s">
         <v>341</v>
       </c>
@@ -7701,13 +7701,13 @@
       <c r="H27" s="70"/>
     </row>
     <row r="28" spans="3:8" ht="45" customHeight="1">
-      <c r="C28" s="97">
+      <c r="C28" s="101">
         <v>9</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="97" t="s">
         <v>342</v>
       </c>
       <c r="F28" s="71" t="s">
@@ -7719,9 +7719,9 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="3:8" ht="45" customHeight="1">
-      <c r="C29" s="98"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="77" t="s">
         <v>316</v>
       </c>
@@ -7731,8 +7731,8 @@
       <c r="H29" s="70"/>
     </row>
     <row r="30" spans="3:8" ht="54">
-      <c r="C30" s="99"/>
-      <c r="D30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="78" t="s">
         <v>343</v>
       </c>
@@ -7745,10 +7745,10 @@
       <c r="H30" s="70"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="97">
+      <c r="C31" s="101">
         <v>10</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="97" t="s">
         <v>331</v>
       </c>
       <c r="E31" s="10"/>
@@ -7757,26 +7757,26 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="98"/>
-      <c r="D32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="104"/>
       <c r="E32" s="9"/>
       <c r="F32" s="70"/>
       <c r="G32" s="71"/>
       <c r="H32" s="70"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="99"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="9"/>
       <c r="F33" s="70"/>
       <c r="G33" s="71"/>
       <c r="H33" s="70"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="97">
+      <c r="C34" s="101">
         <v>11</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="97" t="s">
         <v>331</v>
       </c>
       <c r="E34" s="10"/>
@@ -7785,26 +7785,26 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="98"/>
-      <c r="D35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="9"/>
       <c r="F35" s="70"/>
       <c r="G35" s="71"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="99"/>
-      <c r="D36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="9"/>
       <c r="F36" s="70"/>
       <c r="G36" s="71"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="97">
+      <c r="C37" s="101">
         <v>12</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="97" t="s">
         <v>332</v>
       </c>
       <c r="E37" s="9"/>
@@ -7813,16 +7813,16 @@
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="98"/>
-      <c r="D38" s="101"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="9"/>
       <c r="F38" s="70"/>
       <c r="G38" s="71"/>
       <c r="H38" s="70"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="99"/>
-      <c r="D39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="98"/>
       <c r="E39" s="9"/>
       <c r="F39" s="70"/>
       <c r="G39" s="71"/>
@@ -8326,23 +8326,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="E4:E6"/>
@@ -8359,6 +8342,23 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
